--- a/document/테이블 컬럼 정의.xlsx
+++ b/document/테이블 컬럼 정의.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OCI\workspace\exdev\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34EF70D6-ECCC-492C-96A9-259C397CFF29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8D311B-C4F2-4D99-AB05-A370770E3A5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11340" xr2:uid="{AB24E442-0FBA-4D45-8B0C-6CEEDF8A3E03}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>GRP_CODE</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -150,6 +150,30 @@
   </si>
   <si>
     <t>GENERAL_MANAGER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_STATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INUSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_INUSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -388,6 +412,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -404,13 +434,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -727,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D55A91-E25E-491C-B419-4953E96EB320}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -742,13 +772,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -760,13 +790,13 @@
       <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="16" t="s">
         <v>2</v>
       </c>
     </row>
@@ -801,13 +831,13 @@
     </row>
     <row r="9" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -819,13 +849,13 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="16" t="s">
         <v>2</v>
       </c>
     </row>
@@ -851,13 +881,13 @@
     </row>
     <row r="16" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
@@ -867,16 +897,16 @@
         <v>18</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="E18" s="16"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="16" t="s">
         <v>2</v>
       </c>
     </row>
@@ -905,13 +935,13 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="11"/>
+      <c r="C24" s="13"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
@@ -927,20 +957,20 @@
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -951,7 +981,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="2" t="s">
         <v>31</v>
       </c>
@@ -960,7 +990,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="6"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="7" t="s">
         <v>27</v>
       </c>
@@ -968,12 +998,61 @@
         <v>30</v>
       </c>
     </row>
+    <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="10"/>
+      <c r="B36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
